--- a/acct/protected/commands/template/sellTable.xlsx
+++ b/acct/protected/commands/template/sellTable.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9240"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
   <si>
     <t>2022年5月***销售提成报表</t>
   </si>
@@ -104,6 +115,9 @@
     <t>ID客户</t>
   </si>
   <si>
+    <t>本月恢复客户</t>
+  </si>
+  <si>
     <t>IA月费</t>
   </si>
   <si>
@@ -161,6 +175,9 @@
     <t>提成比例</t>
   </si>
   <si>
+    <t>提成金额</t>
+  </si>
+  <si>
     <t>年营业额</t>
   </si>
   <si>
@@ -231,20 +248,17 @@
   </si>
   <si>
     <t>情况说明</t>
-  </si>
-  <si>
-    <t>提成金额</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -304,76 +318,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,11 +332,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -425,8 +372,47 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,6 +425,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -446,7 +454,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -454,7 +468,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,13 +519,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEDC7E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,85 +597,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,19 +699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,62 +709,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -918,21 +938,34 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,6 +975,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,26 +1018,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,152 +1055,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1377,13 +1410,19 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1392,8 +1431,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1404,7 +1446,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1416,52 +1482,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1470,6 +1536,7 @@
     <mruColors>
       <color rgb="00F7FD9D"/>
       <color rgb="00FF0000"/>
+      <color rgb="00EDC7E4"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1478,6 +1545,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1769,32 +1843,34 @@
   <sheetPr/>
   <dimension ref="A2:AG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:Y13"/>
+    <sheetView tabSelected="1" topLeftCell="R6" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.8916666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.225" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.89166666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5583333333333" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.89166666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.2222222222222" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.88888888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5555555555556" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.88888888888889" style="1" customWidth="1"/>
     <col min="8" max="10" width="9" style="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.8916666666667" style="1" customWidth="1"/>
-    <col min="13" max="15" width="11.4416666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.8888888888889" style="1" customWidth="1"/>
+    <col min="13" max="15" width="11.4444444444444" style="1" customWidth="1"/>
     <col min="16" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="10.1083333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1111111111111" style="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="9.55833333333333" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9.775" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.55555555555556" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.77777777777778" style="1" customWidth="1"/>
     <col min="22" max="23" width="9" style="1"/>
-    <col min="24" max="25" width="9.775" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.4416666666667" style="1" customWidth="1"/>
+    <col min="24" max="25" width="9.77777777777778" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.4444444444444" style="1" customWidth="1"/>
     <col min="27" max="28" width="9" style="1"/>
-    <col min="29" max="29" width="10.1083333333333" style="1" customWidth="1"/>
-    <col min="30" max="32" width="9" style="1"/>
+    <col min="29" max="29" width="10.1111111111111" style="1" customWidth="1"/>
+    <col min="30" max="30" width="11.3333333333333" style="1" customWidth="1"/>
+    <col min="31" max="31" width="9.88888888888889" style="1" customWidth="1"/>
+    <col min="32" max="32" width="9" style="1"/>
     <col min="33" max="33" width="10.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1915,102 +1991,108 @@
       <c r="AA7" s="72"/>
       <c r="AB7" s="72"/>
       <c r="AC7" s="73"/>
-      <c r="AD7"/>
-      <c r="AE7"/>
+      <c r="AD7" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE7" s="75"/>
       <c r="AF7"/>
     </row>
     <row r="8" ht="31" customHeight="1" spans="1:32">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="I8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="K8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="12" t="s">
+      <c r="L8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U8" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="V8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="W8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="X8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="U8" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="X8" s="12" t="s">
-        <v>18</v>
-      </c>
       <c r="Y8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z8" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA8" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="AB8" s="74" t="s">
+      <c r="AA8" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="AC8" s="74" t="s">
+      <c r="AB8" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="AD8"/>
-      <c r="AE8"/>
+      <c r="AC8" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD8" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE8" s="76" t="s">
+        <v>35</v>
+      </c>
       <c r="AF8"/>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:32">
       <c r="A9" s="16"/>
       <c r="B9" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="17">
         <v>0</v>
@@ -2022,31 +2104,31 @@
         <v>0</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" s="18">
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O9" s="16">
         <v>0</v>
@@ -2079,28 +2161,32 @@
         <v>0</v>
       </c>
       <c r="Y9" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z9" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA9" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB9" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC9" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD9"/>
-      <c r="AE9"/>
+        <v>38</v>
+      </c>
+      <c r="AD9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE9" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="AF9"/>
     </row>
     <row r="10" ht="24" customHeight="1" spans="1:32">
       <c r="A10" s="16"/>
       <c r="B10" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" s="19">
         <v>0.09</v>
@@ -2112,31 +2198,31 @@
         <v>0.09</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G10" s="20">
         <v>0.03</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O10" s="20">
         <v>0.03</v>
@@ -2169,28 +2255,32 @@
         <v>0.01</v>
       </c>
       <c r="Y10" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z10" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA10" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB10" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC10" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD10"/>
-      <c r="AE10"/>
+        <v>38</v>
+      </c>
+      <c r="AD10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE10" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="AF10"/>
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:32">
       <c r="A11" s="16"/>
       <c r="B11" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" s="21">
         <v>0</v>
@@ -2202,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G11" s="22">
         <v>0</v>
@@ -2217,16 +2307,16 @@
         <v>0</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O11" s="50">
         <v>0</v>
@@ -2259,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z11" s="64">
         <v>0</v>
@@ -2271,16 +2361,20 @@
         <v>0</v>
       </c>
       <c r="AC11" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD11"/>
-      <c r="AE11"/>
+        <v>38</v>
+      </c>
+      <c r="AD11" s="64">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="AF11"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="24" customHeight="1" spans="1:29">
+    <row r="12" s="1" customFormat="1" ht="24" customHeight="1" spans="1:31">
       <c r="A12" s="16"/>
       <c r="B12" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" s="18">
         <v>0</v>
@@ -2362,12 +2456,18 @@
       </c>
       <c r="AC12" s="18">
         <v>26</v>
+      </c>
+      <c r="AD12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="43.2" customHeight="1" spans="1:33">
       <c r="A13" s="23"/>
       <c r="B13" s="24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" s="25">
         <f>C9+D9+E9</f>
@@ -2395,22 +2495,22 @@
       <c r="W13" s="26"/>
       <c r="X13" s="26"/>
       <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
+      <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="26"/>
       <c r="AC13" s="26"/>
-      <c r="AD13" s="75"/>
-      <c r="AE13" s="76"/>
-      <c r="AF13" s="76"/>
-      <c r="AG13" s="76"/>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="78"/>
+      <c r="AF13" s="79"/>
+      <c r="AG13" s="79"/>
     </row>
-    <row r="14" ht="25" customHeight="1" spans="1:29">
+    <row r="14" ht="25" customHeight="1" spans="1:31">
       <c r="A14" s="23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -2421,10 +2521,10 @@
       <c r="J14" s="28"/>
       <c r="K14" s="30"/>
       <c r="L14" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M14" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N14" s="53" t="s">
         <v>13</v>
@@ -2433,7 +2533,7 @@
       <c r="P14" s="53"/>
       <c r="Q14" s="53"/>
       <c r="R14" s="65" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S14" s="54"/>
       <c r="T14" s="29" t="s">
@@ -2444,73 +2544,81 @@
       <c r="W14" s="29"/>
       <c r="X14" s="29"/>
       <c r="Y14" s="29"/>
-      <c r="Z14" s="77" t="s">
+      <c r="Z14" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="AA14" s="78"/>
-      <c r="AB14" s="78"/>
-      <c r="AC14" s="79"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE14" s="84"/>
     </row>
-    <row r="15" ht="33" customHeight="1" spans="1:29">
+    <row r="15" ht="33" customHeight="1" spans="1:31">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
       <c r="C15" s="29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="30"/>
       <c r="I15" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="51"/>
       <c r="M15" s="53"/>
       <c r="N15" s="54" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O15" s="53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P15" s="53"/>
       <c r="Q15" s="66" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R15" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S15" s="24"/>
       <c r="T15" s="29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U15" s="29"/>
       <c r="V15" s="29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="W15" s="29"/>
       <c r="X15" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Y15" s="29"/>
-      <c r="Z15" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA15" s="79"/>
+      <c r="Z15" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA15" s="82"/>
       <c r="AB15" s="51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC15" s="51" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AD15" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE15" s="86"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="27" customHeight="1" spans="1:29">
+    <row r="16" s="1" customFormat="1" ht="27" customHeight="1" spans="1:31">
       <c r="A16" s="23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="31">
@@ -2557,31 +2665,35 @@
       </c>
       <c r="S16" s="56"/>
       <c r="T16" s="29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U16" s="29"/>
       <c r="V16" s="29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W16" s="29"/>
       <c r="X16" s="69" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y16" s="29"/>
-      <c r="Z16" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA16" s="80"/>
-      <c r="AB16" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC16" s="80" t="s">
-        <v>36</v>
-      </c>
+      <c r="Z16" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA16" s="87"/>
+      <c r="AB16" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC16" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD16" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE16" s="89"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="21" customHeight="1" spans="1:29">
+    <row r="17" s="1" customFormat="1" ht="21" customHeight="1" spans="1:31">
       <c r="A17" s="35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="37">
@@ -2656,10 +2768,15 @@
         <f>AB11</f>
         <v>0</v>
       </c>
+      <c r="AD17" s="90">
+        <f>AD11+AD12</f>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="91"/>
     </row>
-    <row r="18" ht="21" customHeight="1" spans="1:29">
+    <row r="18" ht="21" customHeight="1" spans="1:31">
       <c r="A18" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="41">
@@ -2691,41 +2808,46 @@
       <c r="W18" s="42"/>
       <c r="X18" s="42"/>
       <c r="Y18" s="42"/>
-      <c r="Z18" s="81">
+      <c r="Z18" s="92">
         <f>SUM(Z17:AC17)</f>
         <v>0</v>
       </c>
-      <c r="AA18" s="81"/>
-      <c r="AB18" s="81"/>
-      <c r="AC18" s="81"/>
+      <c r="AA18" s="92"/>
+      <c r="AB18" s="92"/>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="92">
+        <f>AD17</f>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="92"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6">
-        <f>C18+T18+C20+Z18</f>
+        <f>C18+T18+C20+Z18+AD18</f>
         <v>21</v>
       </c>
       <c r="I20" s="6"/>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:1">
       <c r="A23" s="43" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:11">
       <c r="A25" s="44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B25" s="45"/>
       <c r="C25" s="45"/>
@@ -2746,10 +2868,10 @@
         <v>10</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
@@ -2769,36 +2891,38 @@
       <c r="T27" s="46"/>
       <c r="U27" s="46"/>
       <c r="V27" s="46" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="W27" s="46"/>
       <c r="X27" s="46"/>
       <c r="Y27" s="46"/>
-      <c r="Z27" s="82"/>
-      <c r="AA27" s="82"/>
-      <c r="AB27" s="82"/>
-      <c r="AC27" s="82"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="93"/>
+      <c r="AB27" s="93"/>
+      <c r="AC27" s="93"/>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="47"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="55">
+  <mergeCells count="61">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:N7"/>
     <mergeCell ref="O7:U7"/>
     <mergeCell ref="V7:Y7"/>
     <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="C13:Y13"/>
     <mergeCell ref="Z13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AD13:AE13"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="N14:Q14"/>
     <mergeCell ref="R14:S14"/>
     <mergeCell ref="T14:Y14"/>
     <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="I15:K15"/>
@@ -2808,6 +2932,7 @@
     <mergeCell ref="V15:W15"/>
     <mergeCell ref="X15:Y15"/>
     <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AD15:AE15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="I16:K16"/>
@@ -2817,6 +2942,7 @@
     <mergeCell ref="V16:W16"/>
     <mergeCell ref="X16:Y16"/>
     <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AD16:AE16"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="I17:K17"/>
@@ -2826,9 +2952,11 @@
     <mergeCell ref="V17:W17"/>
     <mergeCell ref="X17:Y17"/>
     <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AD17:AE17"/>
     <mergeCell ref="C18:S18"/>
     <mergeCell ref="T18:Y18"/>
     <mergeCell ref="Z18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="A25:K25"/>
@@ -2845,40 +2973,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>